--- a/Mifos Automation Excels/Loan Product/2425-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-DATE-VAR-INST-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/2425-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-DATE-VAR-INST-Loanproduct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="ProductLoanInput" sheetId="6" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>productname</t>
   </si>
@@ -23,42 +23,6 @@
     <t>shortname</t>
   </si>
   <si>
-    <t>fundsource</t>
-  </si>
-  <si>
-    <t>loanprotfolio</t>
-  </si>
-  <si>
-    <t>overpaymentliability</t>
-  </si>
-  <si>
-    <t>loseswrittenoff</t>
-  </si>
-  <si>
-    <t>incomefromrecoveryrepayments</t>
-  </si>
-  <si>
-    <t>incomefromfees</t>
-  </si>
-  <si>
-    <t>incomefrompenalties</t>
-  </si>
-  <si>
-    <t>incomefrominterest</t>
-  </si>
-  <si>
-    <t>feesreceivable</t>
-  </si>
-  <si>
-    <t>transferinsuspense</t>
-  </si>
-  <si>
-    <t>penaltiesreceivable</t>
-  </si>
-  <si>
-    <t>interestreceivable</t>
-  </si>
-  <si>
     <t>principaldefault</t>
   </si>
   <si>
@@ -131,42 +95,6 @@
     <t>Per month</t>
   </si>
   <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loan portfolio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interest Receivable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Penalties Receivable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transfer in Suspence </t>
-  </si>
-  <si>
-    <t>Fees Receivable</t>
-  </si>
-  <si>
-    <t>Income from interest</t>
-  </si>
-  <si>
-    <t>Income from penalties</t>
-  </si>
-  <si>
-    <t>Income from fees</t>
-  </si>
-  <si>
-    <t>Income from recovery repayments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Losses Writtenoff </t>
-  </si>
-  <si>
-    <t>Overpayment Liability</t>
-  </si>
-  <si>
     <t>numberofrepaymentsdefault</t>
   </si>
   <si>
@@ -189,9 +117,6 @@
   </si>
   <si>
     <t>frequencydateforrecalculation</t>
-  </si>
-  <si>
-    <t>accrualperiodic</t>
   </si>
   <si>
     <t>verifyloanproduct</t>
@@ -609,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -626,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -639,7 +564,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B3" s="12">
         <v>2425</v>
@@ -647,15 +572,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5">
         <v>2</v>
@@ -663,7 +588,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -671,7 +596,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2">
         <v>10000</v>
@@ -679,7 +604,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1">
         <v>12</v>
@@ -687,7 +612,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -695,15 +620,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -711,71 +636,71 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -783,7 +708,7 @@
     </row>
     <row r="21" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1">
         <v>365</v>
@@ -791,47 +716,47 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B27" s="9">
         <v>1</v>
@@ -839,7 +764,7 @@
     </row>
     <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B28" s="4">
         <v>42005</v>
@@ -847,15 +772,15 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B30" s="9">
         <v>1</v>
@@ -863,114 +788,10 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="B31" s="9">
         <v>10000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -983,7 +804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -995,10 +816,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Loan Product/2425-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-DATE-VAR-INST-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/2425-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-DATE-VAR-INST-Loanproduct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="ProductLoanInput" sheetId="6" r:id="rId1"/>
@@ -149,10 +149,10 @@
     <t>IsVariableInstallmentsAllowed</t>
   </si>
   <si>
-    <t>2425d</t>
-  </si>
-  <si>
     <t>2425-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-DATE-VAR-INST-1st</t>
+  </si>
+  <si>
+    <t>2kk4</t>
   </si>
 </sst>
 </file>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -562,7 +562,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -807,7 +807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -822,7 +822,7 @@
         <v>34</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
